--- a/example data/group/5 mm - Grand Standard Deviation Group Stepcycles.xlsx
+++ b/example data/group/5 mm - Grand Standard Deviation Group Stepcycles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AZ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,170 +451,245 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Nose x</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Nose y</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ear base x</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Ear base y</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Front paw tao x</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Front paw tao y</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wrist x</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Wrist y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Elbow x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Elbow y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Lower Shoulder x</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Lower Shoulder y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Upper Shoulder x</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Upper Shoulder y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Iliac Crest x</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Iliac Crest y</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Hip x</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Hip y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Knee x</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Knee y</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Ankle x</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Ankle y</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Hind paw tao x</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Hind paw tao y</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Tail base x</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Tail base y</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Tail center x</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Tail center y</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Tail tip x</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Tail tip y</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Ankle Angle</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Knee Angle</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Hind paw tao Velocity</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Hind paw tao Acceleration</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Ankle Velocity</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Ankle Acceleration</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Knee Velocity</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Knee Acceleration</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Hip Velocity</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Hip Acceleration</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Iliac Crest Velocity</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Iliac Crest Acceleration</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Ankle Angle Velocity</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Ankle Angle Acceleration</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Knee Angle Velocity</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Knee Angle Acceleration</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle Velocity</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle Acceleration</t>
         </is>
@@ -631,105 +706,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D2" t="n">
+        <v>70.06152475990621</v>
+      </c>
+      <c r="E2" t="n">
         <v>1.097657283156732</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>71.81344097554404</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.397423647018533</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>69.35806629468745</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.3183508658628456</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>70.09653094363924</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.5693934173493302</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>72.29653225761355</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.035875289278148</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>71.75221969530526</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.124208521763047</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
+        <v>71.36914586634413</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.682462030724586</v>
       </c>
-      <c r="K2" t="n">
+      <c r="R2" t="n">
+        <v>72.13574237748979</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.9532946013143294</v>
       </c>
-      <c r="L2" t="n">
+      <c r="T2" t="n">
+        <v>72.35264045808098</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.8470993775795571</v>
       </c>
-      <c r="M2" t="n">
+      <c r="V2" t="n">
+        <v>71.54418706786036</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.546775044297627</v>
       </c>
-      <c r="N2" t="n">
+      <c r="X2" t="n">
+        <v>71.43445612680537</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1.182379668734528</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Z2" t="n">
+        <v>70.15074111440732</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0.5677359290920951</v>
       </c>
-      <c r="P2" t="n">
+      <c r="AB2" t="n">
+        <v>72.04221961384609</v>
+      </c>
+      <c r="AC2" t="n">
         <v>0.5704947622678322</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="AD2" t="n">
+        <v>66.10308707787517</v>
+      </c>
+      <c r="AE2" t="n">
         <v>3.171626154248524</v>
       </c>
-      <c r="R2" t="n">
+      <c r="AF2" t="n">
+        <v>56.8255158727214</v>
+      </c>
+      <c r="AG2" t="n">
         <v>9.70332041058756</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AH2" t="n">
         <v>8.758777510623609</v>
       </c>
-      <c r="T2" t="n">
+      <c r="AI2" t="n">
         <v>5.551759209914587</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AJ2" t="n">
         <v>16.62931093275187</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AK2" t="n">
         <v>1.274758436816541</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AL2" t="n">
         <v>1.553839060366961</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AM2" t="n">
         <v>0.6400096553740403</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AN2" t="n">
         <v>0.403855229631444</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AO2" t="n">
         <v>0.6890197842493355</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AP2" t="n">
         <v>0.5542024373850375</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AQ2" t="n">
         <v>0.3791299188303411</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AR2" t="n">
         <v>0.3011506499144512</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AS2" t="n">
         <v>0.7594366469922923</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AT2" t="n">
         <v>0.2779528801000852</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AU2" t="n">
         <v>7.371319704014852</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AV2" t="n">
         <v>4.712556308676843</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AW2" t="n">
         <v>7.439834356552424</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AX2" t="n">
         <v>0.9585013600582967</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AY2" t="n">
         <v>3.312189763013609</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AZ2" t="n">
         <v>1.521222810028299</v>
       </c>
     </row>
@@ -744,105 +864,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D3" t="n">
+        <v>70.05879137656387</v>
+      </c>
+      <c r="E3" t="n">
         <v>1.319473796747272</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>71.76699377378173</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.449432687013847</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>69.35444268573247</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.3742924968621495</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
+        <v>70.00610215588017</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.6239325165449729</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
+        <v>71.96463189285808</v>
+      </c>
+      <c r="M3" t="n">
         <v>1.069794180642135</v>
       </c>
-      <c r="I3" t="n">
+      <c r="N3" t="n">
+        <v>71.50449564322078</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.205909794647542</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
+        <v>71.14743382725737</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.673697260496354</v>
       </c>
-      <c r="K3" t="n">
+      <c r="R3" t="n">
+        <v>72.47279154792065</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.251879399354412</v>
       </c>
-      <c r="L3" t="n">
+      <c r="T3" t="n">
+        <v>72.75108076140975</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.014678531471143</v>
       </c>
-      <c r="M3" t="n">
+      <c r="V3" t="n">
+        <v>72.5863214981638</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.771374960977918</v>
       </c>
-      <c r="N3" t="n">
+      <c r="X3" t="n">
+        <v>72.14853206527711</v>
+      </c>
+      <c r="Y3" t="n">
         <v>1.500834516374754</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Z3" t="n">
+        <v>71.80640211067906</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0.6316602508109538</v>
       </c>
-      <c r="P3" t="n">
+      <c r="AB3" t="n">
+        <v>72.02407011816328</v>
+      </c>
+      <c r="AC3" t="n">
         <v>0.7025110857478509</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="AD3" t="n">
+        <v>65.50516595838856</v>
+      </c>
+      <c r="AE3" t="n">
         <v>2.984018735715358</v>
       </c>
-      <c r="R3" t="n">
+      <c r="AF3" t="n">
+        <v>57.22489552163341</v>
+      </c>
+      <c r="AG3" t="n">
         <v>9.656761395575664</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AH3" t="n">
         <v>11.29417845556293</v>
       </c>
-      <c r="T3" t="n">
+      <c r="AI3" t="n">
         <v>8.759907650006229</v>
       </c>
-      <c r="U3" t="n">
+      <c r="AJ3" t="n">
         <v>9.378489108566828</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AK3" t="n">
         <v>3.118802077864097</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AL3" t="n">
         <v>0.686840132454183</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AM3" t="n">
         <v>1.767090685977251</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AN3" t="n">
         <v>0.5004898118163872</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AO3" t="n">
         <v>1.445877981775468</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AP3" t="n">
         <v>0.3278655531438875</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AQ3" t="n">
         <v>0.8157733370233871</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AR3" t="n">
         <v>0.188812948391655</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AS3" t="n">
         <v>0.6939973737581724</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AT3" t="n">
         <v>0.140495794164135</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AU3" t="n">
         <v>6.979181913913346</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AV3" t="n">
         <v>4.700314380801923</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AW3" t="n">
         <v>4.674476768267335</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AX3" t="n">
         <v>3.828859735321976</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AY3" t="n">
         <v>5.525935779838119</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AZ3" t="n">
         <v>1.127520009276783</v>
       </c>
     </row>
@@ -857,105 +1022,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D4" t="n">
+        <v>69.93468390652589</v>
+      </c>
+      <c r="E4" t="n">
         <v>1.307108876701687</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>71.95350899562671</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.581960825684325</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>69.33195255544172</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.3192628697298316</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>69.9794000820562</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.6646538098601874</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
+        <v>71.8696931238233</v>
+      </c>
+      <c r="M4" t="n">
         <v>1.280493945493353</v>
       </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
+        <v>71.63664572152373</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.220872725085113</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
+        <v>71.19256637521666</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.557475575307149</v>
       </c>
-      <c r="K4" t="n">
+      <c r="R4" t="n">
+        <v>72.13240600429347</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.570804543168353</v>
       </c>
-      <c r="L4" t="n">
+      <c r="T4" t="n">
+        <v>72.08410497972774</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.063252232933952</v>
       </c>
-      <c r="M4" t="n">
+      <c r="V4" t="n">
+        <v>71.97749496116029</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.150592340800815</v>
       </c>
-      <c r="N4" t="n">
+      <c r="X4" t="n">
+        <v>70.29012799922278</v>
+      </c>
+      <c r="Y4" t="n">
         <v>0.4132685935351795</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Z4" t="n">
+        <v>69.37329827076003</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0.9280559684121602</v>
       </c>
-      <c r="P4" t="n">
+      <c r="AB4" t="n">
+        <v>72.05524439980897</v>
+      </c>
+      <c r="AC4" t="n">
         <v>1.325568492939874</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AD4" t="n">
+        <v>66.21640249066454</v>
+      </c>
+      <c r="AE4" t="n">
         <v>3.586688126974876</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AF4" t="n">
+        <v>53.65521483067842</v>
+      </c>
+      <c r="AG4" t="n">
         <v>10.31499558909493</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AH4" t="n">
         <v>18.29191838930154</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AI4" t="n">
         <v>11.46024474581416</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AJ4" t="n">
         <v>3.548245783594916</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AK4" t="n">
         <v>1.933285486500728</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AL4" t="n">
         <v>0.9191674781355338</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AM4" t="n">
         <v>1.706048885098482</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AN4" t="n">
         <v>0.6003260640347721</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AO4" t="n">
         <v>0.9017913361241224</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AP4" t="n">
         <v>0.2253782791506019</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AQ4" t="n">
         <v>0.701517295494004</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AR4" t="n">
         <v>0.2592089350858799</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AS4" t="n">
         <v>0.593067837947974</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AT4" t="n">
         <v>0.2271151446840627</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AU4" t="n">
         <v>4.065367300125095</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AV4" t="n">
         <v>3.891270009576181</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AW4" t="n">
         <v>2.253830907000848</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AX4" t="n">
         <v>3.393463600068649</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AY4" t="n">
         <v>2.365833772696552</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AZ4" t="n">
         <v>1.909308121461865</v>
       </c>
     </row>
@@ -970,105 +1180,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D5" t="n">
+        <v>69.99599613781403</v>
+      </c>
+      <c r="E5" t="n">
         <v>1.560515882945477</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>72.07494949704299</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.639576326981162</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>69.40160877280479</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.444646701340412</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
+        <v>70.39299707846912</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.8511306060141727</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
+        <v>72.06126522759227</v>
+      </c>
+      <c r="M5" t="n">
         <v>1.518825847543579</v>
       </c>
-      <c r="I5" t="n">
+      <c r="N5" t="n">
+        <v>71.84481623009219</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.309542268957021</v>
       </c>
-      <c r="J5" t="n">
+      <c r="P5" t="n">
+        <v>71.48959793989201</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.553392150736674</v>
       </c>
-      <c r="K5" t="n">
+      <c r="R5" t="n">
+        <v>72.45862562744374</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.095373550853296</v>
       </c>
-      <c r="L5" t="n">
+      <c r="T5" t="n">
+        <v>72.34649518836127</v>
+      </c>
+      <c r="U5" t="n">
         <v>0.745520829786436</v>
       </c>
-      <c r="M5" t="n">
+      <c r="V5" t="n">
+        <v>71.58602804703695</v>
+      </c>
+      <c r="W5" t="n">
         <v>0.5979390642217304</v>
       </c>
-      <c r="N5" t="n">
+      <c r="X5" t="n">
+        <v>69.70718051200382</v>
+      </c>
+      <c r="Y5" t="n">
         <v>0.2364928769912156</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Z5" t="n">
+        <v>69.15099828032278</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0.9379313513399797</v>
       </c>
-      <c r="P5" t="n">
+      <c r="AB5" t="n">
+        <v>72.13350830365816</v>
+      </c>
+      <c r="AC5" t="n">
         <v>1.897629922067034</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AD5" t="n">
+        <v>65.56911479108427</v>
+      </c>
+      <c r="AE5" t="n">
         <v>4.386690751110102</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AF5" t="n">
+        <v>53.43989829209551</v>
+      </c>
+      <c r="AG5" t="n">
         <v>6.98446602263885</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AH5" t="n">
         <v>11.98676575344906</v>
       </c>
-      <c r="T5" t="n">
+      <c r="AI5" t="n">
         <v>7.77105672330748</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AJ5" t="n">
         <v>1.028382120816284</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AK5" t="n">
         <v>1.0802585386025</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AL5" t="n">
         <v>0.5164205259333952</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AM5" t="n">
         <v>1.143148490420198</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AN5" t="n">
         <v>0.4828213418607074</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AO5" t="n">
         <v>0.7530981806763645</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AP5" t="n">
         <v>0.2431896162805934</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AQ5" t="n">
         <v>0.606661698457983</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AR5" t="n">
         <v>0.1216423669039082</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AS5" t="n">
         <v>0.6033184049390191</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AT5" t="n">
         <v>0.07057612414729617</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AU5" t="n">
         <v>4.175292736460504</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AV5" t="n">
         <v>0.7784309135711952</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AW5" t="n">
         <v>1.803365062152734</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AX5" t="n">
         <v>1.452156050326818</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AY5" t="n">
         <v>1.003653675481112</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AZ5" t="n">
         <v>0.978833084569166</v>
       </c>
     </row>
@@ -1083,105 +1338,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D6" t="n">
+        <v>70.1525925520954</v>
+      </c>
+      <c r="E6" t="n">
         <v>1.393878110065335</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>72.34916768189319</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.778355591401777</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>70.94060326778452</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.8243996285382991</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>72.14587085061933</v>
+      </c>
+      <c r="K6" t="n">
         <v>1.155761836357553</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>72.65990165765142</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.793453202565146</v>
       </c>
-      <c r="I6" t="n">
+      <c r="N6" t="n">
+        <v>72.4580398003326</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.518513913821896</v>
       </c>
-      <c r="J6" t="n">
+      <c r="P6" t="n">
+        <v>71.94987547382044</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.625494314760827</v>
       </c>
-      <c r="K6" t="n">
+      <c r="R6" t="n">
+        <v>72.85346887206582</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.216750982951994</v>
       </c>
-      <c r="L6" t="n">
+      <c r="T6" t="n">
+        <v>72.67036040025425</v>
+      </c>
+      <c r="U6" t="n">
         <v>0.8550508605370879</v>
       </c>
-      <c r="M6" t="n">
+      <c r="V6" t="n">
+        <v>72.08318935494192</v>
+      </c>
+      <c r="W6" t="n">
         <v>0.8636521780608615</v>
       </c>
-      <c r="N6" t="n">
+      <c r="X6" t="n">
+        <v>69.57571687964932</v>
+      </c>
+      <c r="Y6" t="n">
         <v>0.6067712335158272</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Z6" t="n">
+        <v>69.08318631773844</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0.4749474056227485</v>
       </c>
-      <c r="P6" t="n">
+      <c r="AB6" t="n">
+        <v>72.37119425702072</v>
+      </c>
+      <c r="AC6" t="n">
         <v>2.098802758080414</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AD6" t="n">
+        <v>64.84642679069917</v>
+      </c>
+      <c r="AE6" t="n">
         <v>4.121503065605519</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AF6" t="n">
+        <v>53.4056490257904</v>
+      </c>
+      <c r="AG6" t="n">
         <v>9.142048378873548</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AH6" t="n">
         <v>8.95761055149678</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AI6" t="n">
         <v>9.150379345971452</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AJ6" t="n">
         <v>1.743806020942583</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AK6" t="n">
         <v>0.368545434670225</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AL6" t="n">
         <v>0.310581237611295</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AM6" t="n">
         <v>0.4600166759254863</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AN6" t="n">
         <v>0.3528104443767579</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AO6" t="n">
         <v>0.3495577117449317</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AP6" t="n">
         <v>0.2248164571343507</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AQ6" t="n">
         <v>0.2712809984807664</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AR6" t="n">
         <v>0.1831941070932155</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AS6" t="n">
         <v>0.166688616351709</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AT6" t="n">
         <v>0.2302043112816452</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AU6" t="n">
         <v>1.802888599318599</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AV6" t="n">
         <v>2.224579691213878</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AW6" t="n">
         <v>1.267569385112726</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AX6" t="n">
         <v>1.030013094715106</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AY6" t="n">
         <v>2.017749422798545</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AZ6" t="n">
         <v>1.081812177665125</v>
       </c>
     </row>
@@ -1196,105 +1496,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D7" t="n">
+        <v>54.79680841881276</v>
+      </c>
+      <c r="E7" t="n">
         <v>2.394222425135656</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>72.84973051972702</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.881488871461311</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>75.53890463963124</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.560300413409259</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
+        <v>74.88040138440596</v>
+      </c>
+      <c r="K7" t="n">
         <v>1.396654016900279</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
+        <v>74.12542566100835</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.359615724382837</v>
       </c>
-      <c r="I7" t="n">
+      <c r="N7" t="n">
+        <v>73.74460896433773</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.456213445595116</v>
       </c>
-      <c r="J7" t="n">
+      <c r="P7" t="n">
+        <v>73.03790989853032</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.657065494484873</v>
       </c>
-      <c r="K7" t="n">
+      <c r="R7" t="n">
+        <v>72.90877192559603</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.270906185892085</v>
       </c>
-      <c r="L7" t="n">
+      <c r="T7" t="n">
+        <v>72.65643512175997</v>
+      </c>
+      <c r="U7" t="n">
         <v>0.7403741702917205</v>
       </c>
-      <c r="M7" t="n">
+      <c r="V7" t="n">
+        <v>72.27676208952722</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.223771365608328</v>
       </c>
-      <c r="N7" t="n">
+      <c r="X7" t="n">
+        <v>69.39202073246527</v>
+      </c>
+      <c r="Y7" t="n">
         <v>0.6470525642340261</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Z7" t="n">
+        <v>69.13825732494084</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0.534291737847761</v>
       </c>
-      <c r="P7" t="n">
+      <c r="AB7" t="n">
+        <v>72.7975883926467</v>
+      </c>
+      <c r="AC7" t="n">
         <v>1.939156352535519</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AD7" t="n">
+        <v>64.61183593720689</v>
+      </c>
+      <c r="AE7" t="n">
         <v>3.945757367079122</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AF7" t="n">
+        <v>53.24007157481521</v>
+      </c>
+      <c r="AG7" t="n">
         <v>9.729388694296818</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AH7" t="n">
         <v>10.57452156849066</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AI7" t="n">
         <v>11.39429123580988</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AJ7" t="n">
         <v>4.14234280755585</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AK7" t="n">
         <v>0.1519616546096571</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AL7" t="n">
         <v>0.05379953428674564</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AM7" t="n">
         <v>0.1619274170651316</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AN7" t="n">
         <v>0.1171889433426635</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AO7" t="n">
         <v>0.2725205860335199</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AP7" t="n">
         <v>0.1388410642904925</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AQ7" t="n">
         <v>0.1951999439999641</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AR7" t="n">
         <v>0.05744813502691332</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AS7" t="n">
         <v>0.1237312146221322</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AT7" t="n">
         <v>0.0583763787228006</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AU7" t="n">
         <v>1.848441446972686</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AV7" t="n">
         <v>0.8653893206305558</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AW7" t="n">
         <v>1.276715188116279</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AX7" t="n">
         <v>1.405206771927507</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AY7" t="n">
         <v>1.165666593322993</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AZ7" t="n">
         <v>0.9303400865424314</v>
       </c>
     </row>
@@ -1309,105 +1654,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D8" t="n">
+        <v>52.83937665583628</v>
+      </c>
+      <c r="E8" t="n">
         <v>2.814268583768734</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>73.03777658769957</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.537570627577513</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
+        <v>76.71879416316972</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.32193978108948</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
+        <v>76.01292383213394</v>
+      </c>
+      <c r="K8" t="n">
         <v>1.184666537819574</v>
       </c>
-      <c r="H8" t="n">
+      <c r="L8" t="n">
+        <v>75.18065029527939</v>
+      </c>
+      <c r="M8" t="n">
         <v>1.583309158510984</v>
       </c>
-      <c r="I8" t="n">
+      <c r="N8" t="n">
+        <v>74.48908356889683</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.484217751272535</v>
       </c>
-      <c r="J8" t="n">
+      <c r="P8" t="n">
+        <v>73.97151950553763</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1.675400993818256</v>
       </c>
-      <c r="K8" t="n">
+      <c r="R8" t="n">
+        <v>73.08009938305719</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.244523266066936</v>
       </c>
-      <c r="L8" t="n">
+      <c r="T8" t="n">
+        <v>72.75213609699294</v>
+      </c>
+      <c r="U8" t="n">
         <v>0.7237538345638174</v>
       </c>
-      <c r="M8" t="n">
+      <c r="V8" t="n">
+        <v>71.9763382647542</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.406400938043</v>
       </c>
-      <c r="N8" t="n">
+      <c r="X8" t="n">
+        <v>69.2943225968681</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0.5069920962616322</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Z8" t="n">
+        <v>69.22292931224277</v>
+      </c>
+      <c r="AA8" t="n">
         <v>0.3920837652798598</v>
       </c>
-      <c r="P8" t="n">
+      <c r="AB8" t="n">
+        <v>73.14258014926249</v>
+      </c>
+      <c r="AC8" t="n">
         <v>1.853175439736193</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="AD8" t="n">
+        <v>64.83094610753095</v>
+      </c>
+      <c r="AE8" t="n">
         <v>3.950243479998357</v>
       </c>
-      <c r="R8" t="n">
+      <c r="AF8" t="n">
+        <v>53.12932858506012</v>
+      </c>
+      <c r="AG8" t="n">
         <v>10.41092215199896</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AH8" t="n">
         <v>10.96677806594846</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AI8" t="n">
         <v>8.548672911934288</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AJ8" t="n">
         <v>5.332666057497859</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AK8" t="n">
         <v>0.1336633328246704</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AL8" t="n">
         <v>0.0641839409812066</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AM8" t="n">
         <v>0.1491015700652942</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AN8" t="n">
         <v>0.07950963373213464</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AO8" t="n">
         <v>0.188107034594627</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AP8" t="n">
         <v>0.1122182453747473</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AQ8" t="n">
         <v>0.1799462087266007</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AR8" t="n">
         <v>0.1153009200651054</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AS8" t="n">
         <v>0.1711371177647578</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AT8" t="n">
         <v>0.07161201651813699</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AU8" t="n">
         <v>1.006342849816787</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AV8" t="n">
         <v>0.2737118462883879</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AW8" t="n">
         <v>1.050871191465693</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AX8" t="n">
         <v>0.7750003292989291</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AY8" t="n">
         <v>0.3928495984341265</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AZ8" t="n">
         <v>0.494101674168341</v>
       </c>
     </row>
@@ -1422,105 +1812,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D9" t="n">
+        <v>57.87179020087368</v>
+      </c>
+      <c r="E9" t="n">
         <v>3.428903896957921</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>72.71535000214864</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.350133655660489</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
+        <v>75.30102332251226</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.9991498336460253</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
+        <v>75.35712774108698</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.804100851071694</v>
       </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
+        <v>75.34935146252224</v>
+      </c>
+      <c r="M9" t="n">
         <v>1.219775454231922</v>
       </c>
-      <c r="I9" t="n">
+      <c r="N9" t="n">
+        <v>74.46051309045728</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.122942105928021</v>
       </c>
-      <c r="J9" t="n">
+      <c r="P9" t="n">
+        <v>73.98686137599383</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.147270909352359</v>
       </c>
-      <c r="K9" t="n">
+      <c r="R9" t="n">
+        <v>73.03071602229238</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.320518071764786</v>
       </c>
-      <c r="L9" t="n">
+      <c r="T9" t="n">
+        <v>72.68720920165376</v>
+      </c>
+      <c r="U9" t="n">
         <v>0.7360061142825368</v>
       </c>
-      <c r="M9" t="n">
+      <c r="V9" t="n">
+        <v>71.80053635668446</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.526076283100108</v>
       </c>
-      <c r="N9" t="n">
+      <c r="X9" t="n">
+        <v>69.3262996052411</v>
+      </c>
+      <c r="Y9" t="n">
         <v>0.5837076009517195</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Z9" t="n">
+        <v>69.15271083245399</v>
+      </c>
+      <c r="AA9" t="n">
         <v>0.5060038628748647</v>
       </c>
-      <c r="P9" t="n">
+      <c r="AB9" t="n">
+        <v>73.48619420343945</v>
+      </c>
+      <c r="AC9" t="n">
         <v>1.794547301484579</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AD9" t="n">
+        <v>65.888470334052</v>
+      </c>
+      <c r="AE9" t="n">
         <v>5.068557458360925</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AF9" t="n">
+        <v>53.82017759455474</v>
+      </c>
+      <c r="AG9" t="n">
         <v>12.92256174438449</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AH9" t="n">
         <v>12.11544413499491</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AI9" t="n">
         <v>8.026144992566866</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AJ9" t="n">
         <v>5.833620221175913</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AK9" t="n">
         <v>0.0686508411129073</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AL9" t="n">
         <v>0.06034724271504704</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AM9" t="n">
         <v>0.08143462734659387</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AN9" t="n">
         <v>0.1232363288986893</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AO9" t="n">
         <v>0.2299982991759968</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AP9" t="n">
         <v>0.1190537097790248</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AQ9" t="n">
         <v>0.2044102077438452</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AR9" t="n">
         <v>0.06556926990635639</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AS9" t="n">
         <v>0.1053335392501311</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AT9" t="n">
         <v>0.1579725879737054</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AU9" t="n">
         <v>1.188964822635976</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AV9" t="n">
         <v>0.5257085434265604</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AW9" t="n">
         <v>1.235128094726966</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AX9" t="n">
         <v>0.7196966019615774</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AY9" t="n">
         <v>1.591143495532483</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AZ9" t="n">
         <v>0.8091624049005369</v>
       </c>
     </row>
@@ -1535,105 +1970,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D10" t="n">
+        <v>60.45194044203749</v>
+      </c>
+      <c r="E10" t="n">
         <v>3.416902514202699</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>72.01138832175283</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.994293053876385</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
+        <v>73.28582278853243</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.4095405325770159</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
+        <v>73.61823042564237</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.4517132773684172</v>
       </c>
-      <c r="H10" t="n">
+      <c r="L10" t="n">
+        <v>74.15018296873136</v>
+      </c>
+      <c r="M10" t="n">
         <v>1.053042324953097</v>
       </c>
-      <c r="I10" t="n">
+      <c r="N10" t="n">
+        <v>73.57153980211245</v>
+      </c>
+      <c r="O10" t="n">
         <v>0.9542011817197085</v>
       </c>
-      <c r="J10" t="n">
+      <c r="P10" t="n">
+        <v>73.129875360868</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.163081455456027</v>
       </c>
-      <c r="K10" t="n">
+      <c r="R10" t="n">
+        <v>72.83057265676983</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.368131539942225</v>
       </c>
-      <c r="L10" t="n">
+      <c r="T10" t="n">
+        <v>72.43967946714791</v>
+      </c>
+      <c r="U10" t="n">
         <v>0.8115310359123958</v>
       </c>
-      <c r="M10" t="n">
+      <c r="V10" t="n">
+        <v>71.35723167761492</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.700260741240046</v>
       </c>
-      <c r="N10" t="n">
+      <c r="X10" t="n">
+        <v>69.21750468541634</v>
+      </c>
+      <c r="Y10" t="n">
         <v>0.6811939355671435</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Z10" t="n">
+        <v>68.99885724224809</v>
+      </c>
+      <c r="AA10" t="n">
         <v>0.4391724632585693</v>
       </c>
-      <c r="P10" t="n">
+      <c r="AB10" t="n">
+        <v>73.28488537215082</v>
+      </c>
+      <c r="AC10" t="n">
         <v>2.165082777867946</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AD10" t="n">
+        <v>66.21228896750874</v>
+      </c>
+      <c r="AE10" t="n">
         <v>6.413368225103717</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AF10" t="n">
+        <v>55.66743952929306</v>
+      </c>
+      <c r="AG10" t="n">
         <v>12.81642540428255</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AH10" t="n">
         <v>12.44151843725692</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AI10" t="n">
         <v>6.902298046982017</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AJ10" t="n">
         <v>7.658105940695833</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AK10" t="n">
         <v>0.08241033669172919</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AL10" t="n">
         <v>0.05628197653302972</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AM10" t="n">
         <v>0.2390448149155551</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AN10" t="n">
         <v>0.1230680616391277</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AO10" t="n">
         <v>0.2701810156677022</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AP10" t="n">
         <v>0.09242138356685392</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AQ10" t="n">
         <v>0.1405002513732403</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AR10" t="n">
         <v>0.1170026836933905</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AS10" t="n">
         <v>0.1934511359810526</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AT10" t="n">
         <v>0.124225660631993</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AU10" t="n">
         <v>1.234209308494882</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AV10" t="n">
         <v>0.603037187900702</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AW10" t="n">
         <v>0.8244054572316508</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AX10" t="n">
         <v>0.4598780741766748</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AY10" t="n">
         <v>1.703602783477448</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AZ10" t="n">
         <v>0.6365087635773784</v>
       </c>
     </row>
@@ -1648,105 +2128,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D11" t="n">
+        <v>60.06526523482506</v>
+      </c>
+      <c r="E11" t="n">
         <v>3.253800207494781</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>71.38704591999915</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.203013221908215</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
+        <v>72.02262857157969</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.5037341049378898</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
+        <v>72.64563421920082</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.8024568111858343</v>
       </c>
-      <c r="H11" t="n">
+      <c r="L11" t="n">
+        <v>73.51347386230444</v>
+      </c>
+      <c r="M11" t="n">
         <v>1.274820098709131</v>
       </c>
-      <c r="I11" t="n">
+      <c r="N11" t="n">
+        <v>72.78329794814003</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.138338135804558</v>
       </c>
-      <c r="J11" t="n">
+      <c r="P11" t="n">
+        <v>72.62861397974252</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1.216337306103425</v>
       </c>
-      <c r="K11" t="n">
+      <c r="R11" t="n">
+        <v>72.40116535045371</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.75629135170868</v>
       </c>
-      <c r="L11" t="n">
+      <c r="T11" t="n">
+        <v>72.12839261638659</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.170823081346252</v>
       </c>
-      <c r="M11" t="n">
+      <c r="V11" t="n">
+        <v>70.7088236246768</v>
+      </c>
+      <c r="W11" t="n">
         <v>2.023931953136159</v>
       </c>
-      <c r="N11" t="n">
+      <c r="X11" t="n">
+        <v>69.04560172399802</v>
+      </c>
+      <c r="Y11" t="n">
         <v>0.6224492321325209</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Z11" t="n">
+        <v>68.95704518547142</v>
+      </c>
+      <c r="AA11" t="n">
         <v>0.5442827187994704</v>
       </c>
-      <c r="P11" t="n">
+      <c r="AB11" t="n">
+        <v>72.99156477654081</v>
+      </c>
+      <c r="AC11" t="n">
         <v>2.612462339720945</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="AD11" t="n">
+        <v>67.12267197274551</v>
+      </c>
+      <c r="AE11" t="n">
         <v>7.632835187403709</v>
       </c>
-      <c r="R11" t="n">
+      <c r="AF11" t="n">
+        <v>56.85939199707189</v>
+      </c>
+      <c r="AG11" t="n">
         <v>14.66803032259521</v>
       </c>
-      <c r="S11" t="n">
+      <c r="AH11" t="n">
         <v>12.43194258492765</v>
       </c>
-      <c r="T11" t="n">
+      <c r="AI11" t="n">
         <v>5.987909642792823</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AJ11" t="n">
         <v>9.928170624726832</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AK11" t="n">
         <v>0.07105678323847521</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AL11" t="n">
         <v>0.0707110068033253</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AM11" t="n">
         <v>0.2495603940123956</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AN11" t="n">
         <v>0.08563089265031865</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AO11" t="n">
         <v>0.3210434125558931</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AP11" t="n">
         <v>0.07193968586535505</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AQ11" t="n">
         <v>0.2135274405921055</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AR11" t="n">
         <v>0.06846234879559741</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AS11" t="n">
         <v>0.3067892455060901</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AT11" t="n">
         <v>0.09316167418082684</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AU11" t="n">
         <v>1.272967328936871</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AV11" t="n">
         <v>0.7041073533182302</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AW11" t="n">
         <v>0.947297862777253</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AX11" t="n">
         <v>0.4078001118338133</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AY11" t="n">
         <v>1.241781007789381</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AZ11" t="n">
         <v>0.3291113474536831</v>
       </c>
     </row>
@@ -1761,105 +2286,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D12" t="n">
+        <v>36.39679887400473</v>
+      </c>
+      <c r="E12" t="n">
         <v>1.937028342330369</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>70.88538466890539</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.723239986497109</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
+        <v>70.45947209674038</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.3673468190106731</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
+        <v>71.40423814796557</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.617307603092582</v>
       </c>
-      <c r="H12" t="n">
+      <c r="L12" t="n">
+        <v>72.85325754035932</v>
+      </c>
+      <c r="M12" t="n">
         <v>1.257488163737194</v>
       </c>
-      <c r="I12" t="n">
+      <c r="N12" t="n">
+        <v>72.34570269033476</v>
+      </c>
+      <c r="O12" t="n">
         <v>1.151538672865182</v>
       </c>
-      <c r="J12" t="n">
+      <c r="P12" t="n">
+        <v>72.30860207102953</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1.183628345251146</v>
       </c>
-      <c r="K12" t="n">
+      <c r="R12" t="n">
+        <v>71.98100038209365</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.576864532025654</v>
       </c>
-      <c r="L12" t="n">
+      <c r="T12" t="n">
+        <v>71.67488363432028</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.192574467775586</v>
       </c>
-      <c r="M12" t="n">
+      <c r="V12" t="n">
+        <v>70.15018430232355</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.903766672244856</v>
       </c>
-      <c r="N12" t="n">
+      <c r="X12" t="n">
+        <v>68.96552208258916</v>
+      </c>
+      <c r="Y12" t="n">
         <v>0.9391017285950849</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Z12" t="n">
+        <v>68.80424301260518</v>
+      </c>
+      <c r="AA12" t="n">
         <v>0.6938968157423411</v>
       </c>
-      <c r="P12" t="n">
+      <c r="AB12" t="n">
+        <v>72.75628126223499</v>
+      </c>
+      <c r="AC12" t="n">
         <v>2.785670648392871</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="AD12" t="n">
+        <v>65.81117753374375</v>
+      </c>
+      <c r="AE12" t="n">
         <v>9.357695515291814</v>
       </c>
-      <c r="R12" t="n">
+      <c r="AF12" t="n">
+        <v>58.7494541849284</v>
+      </c>
+      <c r="AG12" t="n">
         <v>17.14244003940625</v>
       </c>
-      <c r="S12" t="n">
+      <c r="AH12" t="n">
         <v>11.43723778892558</v>
       </c>
-      <c r="T12" t="n">
+      <c r="AI12" t="n">
         <v>5.540656618174362</v>
       </c>
-      <c r="U12" t="n">
+      <c r="AJ12" t="n">
         <v>11.63568030248651</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AK12" t="n">
         <v>0.1487535258579881</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AL12" t="n">
         <v>0.04029486411212508</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AM12" t="n">
         <v>0.1605964637353639</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AN12" t="n">
         <v>0.174735430422647</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AO12" t="n">
         <v>0.2038896932135265</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AP12" t="n">
         <v>0.1359379585240551</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AQ12" t="n">
         <v>0.2448869900525856</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AR12" t="n">
         <v>0.2262533288962372</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AS12" t="n">
         <v>0.3406629593785076</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AT12" t="n">
         <v>0.2200429095977801</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AU12" t="n">
         <v>1.386375999463294</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AV12" t="n">
         <v>0.6438756189529745</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AW12" t="n">
         <v>0.6624079367326424</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AX12" t="n">
         <v>0.8159669880552651</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AY12" t="n">
         <v>1.531231218315295</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AZ12" t="n">
         <v>1.202533612111881</v>
       </c>
     </row>
@@ -1874,105 +2444,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D13" t="n">
+        <v>36.09468517000307</v>
+      </c>
+      <c r="E13" t="n">
         <v>1.095249785705173</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>70.30835782622449</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.699472950828132</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
+        <v>68.7992143473989</v>
+      </c>
+      <c r="I13" t="n">
         <v>0.3120368522847682</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
+        <v>69.76614774156442</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.4265336306327657</v>
       </c>
-      <c r="H13" t="n">
+      <c r="L13" t="n">
+        <v>72.30376372979836</v>
+      </c>
+      <c r="M13" t="n">
         <v>1.381397863308018</v>
       </c>
-      <c r="I13" t="n">
+      <c r="N13" t="n">
+        <v>71.73325759677704</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.031957272791493</v>
       </c>
-      <c r="J13" t="n">
+      <c r="P13" t="n">
+        <v>71.81552334819131</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1.207412732723174</v>
       </c>
-      <c r="K13" t="n">
+      <c r="R13" t="n">
+        <v>71.94310168323268</v>
+      </c>
+      <c r="S13" t="n">
         <v>1.59749189954501</v>
       </c>
-      <c r="L13" t="n">
+      <c r="T13" t="n">
+        <v>71.6633455352905</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.334364777542312</v>
       </c>
-      <c r="M13" t="n">
+      <c r="V13" t="n">
+        <v>70.03913427359312</v>
+      </c>
+      <c r="W13" t="n">
         <v>2.157107136836295</v>
       </c>
-      <c r="N13" t="n">
+      <c r="X13" t="n">
+        <v>69.0031140602642</v>
+      </c>
+      <c r="Y13" t="n">
         <v>0.9700300214448989</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Z13" t="n">
+        <v>68.58339243459548</v>
+      </c>
+      <c r="AA13" t="n">
         <v>0.7903673458760555</v>
       </c>
-      <c r="P13" t="n">
+      <c r="AB13" t="n">
+        <v>72.5354513339778</v>
+      </c>
+      <c r="AC13" t="n">
         <v>3.159419856204516</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="AD13" t="n">
+        <v>65.65778730670313</v>
+      </c>
+      <c r="AE13" t="n">
         <v>11.05275256288641</v>
       </c>
-      <c r="R13" t="n">
+      <c r="AF13" t="n">
+        <v>58.5777760055991</v>
+      </c>
+      <c r="AG13" t="n">
         <v>18.88725447603674</v>
       </c>
-      <c r="S13" t="n">
+      <c r="AH13" t="n">
         <v>10.5630083760595</v>
       </c>
-      <c r="T13" t="n">
+      <c r="AI13" t="n">
         <v>4.210626307080991</v>
       </c>
-      <c r="U13" t="n">
+      <c r="AJ13" t="n">
         <v>13.25846254756289</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AK13" t="n">
         <v>0.05331271090793191</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AL13" t="n">
         <v>0.1038604097694314</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AM13" t="n">
         <v>0.0872079937972237</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AN13" t="n">
         <v>0.1044423026455787</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AO13" t="n">
         <v>0.1580259379816601</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AP13" t="n">
         <v>0.04384754548876628</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AQ13" t="n">
         <v>0.3264628867098061</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AR13" t="n">
         <v>0.05394708969555742</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AS13" t="n">
         <v>0.3823448311820051</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AT13" t="n">
         <v>0.1122189335756977</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AU13" t="n">
         <v>1.297055886233378</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AV13" t="n">
         <v>0.4191341493244335</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AW13" t="n">
         <v>1.579002283443824</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AX13" t="n">
         <v>0.4319450006925514</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AY13" t="n">
         <v>2.625930845852386</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AZ13" t="n">
         <v>0.7156818247928192</v>
       </c>
     </row>
@@ -1987,105 +2602,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D14" t="n">
+        <v>36.01738785147207</v>
+      </c>
+      <c r="E14" t="n">
         <v>1.088823673602375</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>69.60626628252361</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.031279835571535</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
+        <v>68.36826154938026</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.3101759506175779</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
+        <v>69.28661305451138</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.2727490386565706</v>
       </c>
-      <c r="H14" t="n">
+      <c r="L14" t="n">
+        <v>71.97320508213916</v>
+      </c>
+      <c r="M14" t="n">
         <v>1.434087548820483</v>
       </c>
-      <c r="I14" t="n">
+      <c r="N14" t="n">
+        <v>71.29691544575468</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.091995779708425</v>
       </c>
-      <c r="J14" t="n">
+      <c r="P14" t="n">
+        <v>71.39008806855102</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.257714934272508</v>
       </c>
-      <c r="K14" t="n">
+      <c r="R14" t="n">
+        <v>71.81787026421924</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.414933207139581</v>
       </c>
-      <c r="L14" t="n">
+      <c r="T14" t="n">
+        <v>71.68238878447336</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.077054760636033</v>
       </c>
-      <c r="M14" t="n">
+      <c r="V14" t="n">
+        <v>69.78911083367494</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.913251352685659</v>
       </c>
-      <c r="N14" t="n">
+      <c r="X14" t="n">
+        <v>68.99651526270296</v>
+      </c>
+      <c r="Y14" t="n">
         <v>1.178547622132003</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Z14" t="n">
+        <v>68.63801498942227</v>
+      </c>
+      <c r="AA14" t="n">
         <v>0.8254048632621848</v>
       </c>
-      <c r="P14" t="n">
+      <c r="AB14" t="n">
+        <v>72.24964728490856</v>
+      </c>
+      <c r="AC14" t="n">
         <v>3.021954389952274</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="AD14" t="n">
+        <v>66.1189627195413</v>
+      </c>
+      <c r="AE14" t="n">
         <v>11.04099356455107</v>
       </c>
-      <c r="R14" t="n">
+      <c r="AF14" t="n">
+        <v>59.90873614642392</v>
+      </c>
+      <c r="AG14" t="n">
         <v>18.92265354147269</v>
       </c>
-      <c r="S14" t="n">
+      <c r="AH14" t="n">
         <v>9.480477616665683</v>
       </c>
-      <c r="T14" t="n">
+      <c r="AI14" t="n">
         <v>3.403189204913726</v>
       </c>
-      <c r="U14" t="n">
+      <c r="AJ14" t="n">
         <v>13.43007648535797</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AK14" t="n">
         <v>0.06423640406765091</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AL14" t="n">
         <v>0.03436795911693555</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AM14" t="n">
         <v>0.1715587345993763</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AN14" t="n">
         <v>0.1015825320408277</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AO14" t="n">
         <v>0.2878487567921103</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AP14" t="n">
         <v>0.1303809704883137</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AQ14" t="n">
         <v>0.4334301809259209</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AR14" t="n">
         <v>0.0579102989307683</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AS14" t="n">
         <v>0.2893186428910494</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AT14" t="n">
         <v>0.09828205456515297</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AU14" t="n">
         <v>1.259520993529202</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AV14" t="n">
         <v>0.8391646429871259</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AW14" t="n">
         <v>1.332696098744623</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AX14" t="n">
         <v>0.7600602964286645</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AY14" t="n">
         <v>2.793194253083228</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AZ14" t="n">
         <v>0.8952972944084261</v>
       </c>
     </row>
@@ -2100,105 +2760,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D15" t="n">
+        <v>44.07252477774068</v>
+      </c>
+      <c r="E15" t="n">
         <v>1.041421963660103</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>55.7089580577608</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.351126262390531</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
+        <v>68.29364812938147</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.3080940657561373</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
+        <v>69.21628388068041</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.3749593209486631</v>
       </c>
-      <c r="H15" t="n">
+      <c r="L15" t="n">
+        <v>71.80690666117283</v>
+      </c>
+      <c r="M15" t="n">
         <v>1.267187280452019</v>
       </c>
-      <c r="I15" t="n">
+      <c r="N15" t="n">
+        <v>71.29229125241324</v>
+      </c>
+      <c r="O15" t="n">
         <v>0.9287133180579749</v>
       </c>
-      <c r="J15" t="n">
+      <c r="P15" t="n">
+        <v>71.46237208441745</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1.193741987146334</v>
       </c>
-      <c r="K15" t="n">
+      <c r="R15" t="n">
+        <v>71.57363241808639</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.291778689188139</v>
       </c>
-      <c r="L15" t="n">
+      <c r="T15" t="n">
+        <v>71.51783040035257</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.104934766057561</v>
       </c>
-      <c r="M15" t="n">
+      <c r="V15" t="n">
+        <v>69.56340681539693</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.874052705110205</v>
       </c>
-      <c r="N15" t="n">
+      <c r="X15" t="n">
+        <v>69.09314487931954</v>
+      </c>
+      <c r="Y15" t="n">
         <v>1.134232181148147</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Z15" t="n">
+        <v>68.73532032126036</v>
+      </c>
+      <c r="AA15" t="n">
         <v>0.6728549594946037</v>
       </c>
-      <c r="P15" t="n">
+      <c r="AB15" t="n">
+        <v>71.88523124740118</v>
+      </c>
+      <c r="AC15" t="n">
         <v>2.867910088235726</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="AD15" t="n">
+        <v>67.36832237731645</v>
+      </c>
+      <c r="AE15" t="n">
         <v>10.76603062433475</v>
       </c>
-      <c r="R15" t="n">
+      <c r="AF15" t="n">
+        <v>61.29791596921821</v>
+      </c>
+      <c r="AG15" t="n">
         <v>18.66865102442164</v>
       </c>
-      <c r="S15" t="n">
+      <c r="AH15" t="n">
         <v>7.596658677629618</v>
       </c>
-      <c r="T15" t="n">
+      <c r="AI15" t="n">
         <v>2.030588059342891</v>
       </c>
-      <c r="U15" t="n">
+      <c r="AJ15" t="n">
         <v>15.48854426803056</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AK15" t="n">
         <v>0.1511173076327806</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AL15" t="n">
         <v>0.05680900587304161</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AM15" t="n">
         <v>0.2381715345562128</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AN15" t="n">
         <v>0.06021087943535305</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AO15" t="n">
         <v>0.415315195322991</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AP15" t="n">
         <v>0.1968189842398123</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AQ15" t="n">
         <v>0.4454256817861708</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AR15" t="n">
         <v>0.08956812993413078</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AS15" t="n">
         <v>0.408213629236638</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AT15" t="n">
         <v>0.1525941206523098</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AU15" t="n">
         <v>1.715739472304049</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AV15" t="n">
         <v>0.6099215660188836</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AW15" t="n">
         <v>1.466827325300081</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AX15" t="n">
         <v>0.5836834745137128</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AY15" t="n">
         <v>1.420126049260478</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AZ15" t="n">
         <v>1.065325232227284</v>
       </c>
     </row>
@@ -2213,105 +2918,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D16" t="n">
+        <v>54.90763253647085</v>
+      </c>
+      <c r="E16" t="n">
         <v>1.733041607494548</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>63.92588493435878</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.467571422662466</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
+        <v>68.12410166982052</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.3813665255381907</v>
       </c>
-      <c r="G16" t="n">
+      <c r="J16" t="n">
+        <v>69.10640228110366</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.6037850392879409</v>
       </c>
-      <c r="H16" t="n">
+      <c r="L16" t="n">
+        <v>72.13909688850224</v>
+      </c>
+      <c r="M16" t="n">
         <v>1.437330070985111</v>
       </c>
-      <c r="I16" t="n">
+      <c r="N16" t="n">
+        <v>71.16822259033897</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.328454728671536</v>
       </c>
-      <c r="J16" t="n">
+      <c r="P16" t="n">
+        <v>71.4648096030804</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1.54642029387307</v>
       </c>
-      <c r="K16" t="n">
+      <c r="R16" t="n">
+        <v>71.79460209423462</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.317753873839284</v>
       </c>
-      <c r="L16" t="n">
+      <c r="T16" t="n">
+        <v>71.43069236099474</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.040850937047259</v>
       </c>
-      <c r="M16" t="n">
+      <c r="V16" t="n">
+        <v>69.56159747099019</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.887708616775372</v>
       </c>
-      <c r="N16" t="n">
+      <c r="X16" t="n">
+        <v>69.28933136659136</v>
+      </c>
+      <c r="Y16" t="n">
         <v>1.029298206249183</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Z16" t="n">
+        <v>68.84606023143091</v>
+      </c>
+      <c r="AA16" t="n">
         <v>0.699351651103064</v>
       </c>
-      <c r="P16" t="n">
+      <c r="AB16" t="n">
+        <v>71.53805586067834</v>
+      </c>
+      <c r="AC16" t="n">
         <v>2.77999321384555</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="AD16" t="n">
+        <v>66.01129169630772</v>
+      </c>
+      <c r="AE16" t="n">
         <v>10.43493778404816</v>
       </c>
-      <c r="R16" t="n">
+      <c r="AF16" t="n">
+        <v>63.16637869591718</v>
+      </c>
+      <c r="AG16" t="n">
         <v>15.76361177261895</v>
       </c>
-      <c r="S16" t="n">
+      <c r="AH16" t="n">
         <v>5.824884611559563</v>
       </c>
-      <c r="T16" t="n">
+      <c r="AI16" t="n">
         <v>2.594377846666933</v>
       </c>
-      <c r="U16" t="n">
+      <c r="AJ16" t="n">
         <v>14.58624364204576</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AK16" t="n">
         <v>0.06882438494585835</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AL16" t="n">
         <v>0.06154831151736367</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AM16" t="n">
         <v>0.2387543525863123</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AN16" t="n">
         <v>0.06707120054493509</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AO16" t="n">
         <v>0.2777746938513477</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AP16" t="n">
         <v>0.1511524866097161</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AQ16" t="n">
         <v>0.3937817668092991</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AR16" t="n">
         <v>0.05398664723029922</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AS16" t="n">
         <v>0.5077393991060237</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AT16" t="n">
         <v>0.08460618822696253</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AU16" t="n">
         <v>2.274925304596571</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AV16" t="n">
         <v>0.6344149886310655</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AW16" t="n">
         <v>1.205296442649636</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AX16" t="n">
         <v>0.7073480361917468</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AY16" t="n">
         <v>1.190305396294608</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AZ16" t="n">
         <v>0.769073199342524</v>
       </c>
     </row>
@@ -2326,105 +3076,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D17" t="n">
+        <v>54.7465716849558</v>
+      </c>
+      <c r="E17" t="n">
         <v>1.61558094978651</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>63.99033054621862</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.807188379678632</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
+        <v>68.0353639835935</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.3820066687108105</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
+        <v>68.89307201655872</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.5624703651276415</v>
       </c>
-      <c r="H17" t="n">
+      <c r="L17" t="n">
+        <v>71.880420128628</v>
+      </c>
+      <c r="M17" t="n">
         <v>1.574806027075589</v>
       </c>
-      <c r="I17" t="n">
+      <c r="N17" t="n">
+        <v>70.87970759633491</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.293053886297876</v>
       </c>
-      <c r="J17" t="n">
+      <c r="P17" t="n">
+        <v>71.20714741666319</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.642336907219827</v>
       </c>
-      <c r="K17" t="n">
+      <c r="R17" t="n">
+        <v>71.86779680011375</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.315464215785984</v>
       </c>
-      <c r="L17" t="n">
+      <c r="T17" t="n">
+        <v>71.42359691030479</v>
+      </c>
+      <c r="U17" t="n">
         <v>0.8966882999846095</v>
       </c>
-      <c r="M17" t="n">
+      <c r="V17" t="n">
+        <v>69.41367948330077</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.600891701558389</v>
       </c>
-      <c r="N17" t="n">
+      <c r="X17" t="n">
+        <v>69.53499673420383</v>
+      </c>
+      <c r="Y17" t="n">
         <v>1.253227952359525</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Z17" t="n">
+        <v>68.8491861403748</v>
+      </c>
+      <c r="AA17" t="n">
         <v>0.6911705744192893</v>
       </c>
-      <c r="P17" t="n">
+      <c r="AB17" t="n">
+        <v>71.5303062154605</v>
+      </c>
+      <c r="AC17" t="n">
         <v>2.527472789338477</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="AD17" t="n">
+        <v>65.78779995935238</v>
+      </c>
+      <c r="AE17" t="n">
         <v>9.647400560725439</v>
       </c>
-      <c r="R17" t="n">
+      <c r="AF17" t="n">
+        <v>65.34239494047394</v>
+      </c>
+      <c r="AG17" t="n">
         <v>16.51794207325305</v>
       </c>
-      <c r="S17" t="n">
+      <c r="AH17" t="n">
         <v>3.094583332093124</v>
       </c>
-      <c r="T17" t="n">
+      <c r="AI17" t="n">
         <v>5.672745378766558</v>
       </c>
-      <c r="U17" t="n">
+      <c r="AJ17" t="n">
         <v>14.21399519237969</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AK17" t="n">
         <v>0.04814290722674156</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AL17" t="n">
         <v>0.02208975496617784</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AM17" t="n">
         <v>0.3382752830308068</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AN17" t="n">
         <v>0.03540913068353814</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AO17" t="n">
         <v>0.3046978815424985</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AP17" t="n">
         <v>0.1292272893326424</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AQ17" t="n">
         <v>0.408633131862348</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AR17" t="n">
         <v>0.1203356987044628</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AS17" t="n">
         <v>0.4821660231792678</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AT17" t="n">
         <v>0.09693525187897663</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AU17" t="n">
         <v>2.733184278574607</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AV17" t="n">
         <v>0.5198515311193125</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AW17" t="n">
         <v>1.770238774303003</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AX17" t="n">
         <v>0.5144784946050333</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AY17" t="n">
         <v>1.149670871306665</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AZ17" t="n">
         <v>0.4083006105170719</v>
       </c>
     </row>
@@ -2439,105 +3234,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D18" t="n">
+        <v>54.63191206039588</v>
+      </c>
+      <c r="E18" t="n">
         <v>1.737960185185597</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>63.67045112161198</v>
+      </c>
+      <c r="G18" t="n">
         <v>4.642824843785482</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
+        <v>62.44120466807086</v>
+      </c>
+      <c r="I18" t="n">
         <v>1.006998969668162</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
+        <v>68.80888895738759</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.450685038181515</v>
       </c>
-      <c r="H18" t="n">
+      <c r="L18" t="n">
+        <v>71.87186483165672</v>
+      </c>
+      <c r="M18" t="n">
         <v>1.394091285992919</v>
       </c>
-      <c r="I18" t="n">
+      <c r="N18" t="n">
+        <v>70.83507735064497</v>
+      </c>
+      <c r="O18" t="n">
         <v>1.071638108125366</v>
       </c>
-      <c r="J18" t="n">
+      <c r="P18" t="n">
+        <v>71.18615450780004</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.514572723081673</v>
       </c>
-      <c r="K18" t="n">
+      <c r="R18" t="n">
+        <v>72.02361826639968</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.120636379458743</v>
       </c>
-      <c r="L18" t="n">
+      <c r="T18" t="n">
+        <v>71.60224406898321</v>
+      </c>
+      <c r="U18" t="n">
         <v>0.8528888041643189</v>
       </c>
-      <c r="M18" t="n">
+      <c r="V18" t="n">
+        <v>69.41056035251472</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.081974274026217</v>
       </c>
-      <c r="N18" t="n">
+      <c r="X18" t="n">
+        <v>69.79756673819232</v>
+      </c>
+      <c r="Y18" t="n">
         <v>1.251846968859561</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Z18" t="n">
+        <v>68.87045984840105</v>
+      </c>
+      <c r="AA18" t="n">
         <v>0.7984431897889253</v>
       </c>
-      <c r="P18" t="n">
+      <c r="AB18" t="n">
+        <v>71.68955570069151</v>
+      </c>
+      <c r="AC18" t="n">
         <v>2.490583857537268</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="AD18" t="n">
+        <v>66.71760908220485</v>
+      </c>
+      <c r="AE18" t="n">
         <v>9.029497621124587</v>
       </c>
-      <c r="R18" t="n">
+      <c r="AF18" t="n">
+        <v>65.70248498069512</v>
+      </c>
+      <c r="AG18" t="n">
         <v>15.58543505878161</v>
       </c>
-      <c r="S18" t="n">
+      <c r="AH18" t="n">
         <v>1.937969909220191</v>
       </c>
-      <c r="T18" t="n">
+      <c r="AI18" t="n">
         <v>9.139671249016173</v>
       </c>
-      <c r="U18" t="n">
+      <c r="AJ18" t="n">
         <v>14.79362379994666</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AK18" t="n">
         <v>0.06298782627490337</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AL18" t="n">
         <v>0.04225686327622081</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AM18" t="n">
         <v>0.1666874409274525</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AN18" t="n">
         <v>0.1172079114065601</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AO18" t="n">
         <v>0.2862697065018128</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AP18" t="n">
         <v>0.1097420577388857</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AQ18" t="n">
         <v>0.3680309777171913</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AR18" t="n">
         <v>0.05435218796598441</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AS18" t="n">
         <v>0.3533503153145885</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AT18" t="n">
         <v>0.02117366857840959</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AU18" t="n">
         <v>1.837998844205774</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AV18" t="n">
         <v>1.132296680048726</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AW18" t="n">
         <v>1.324311485019807</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AX18" t="n">
         <v>1.466134065433959</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AY18" t="n">
         <v>1.07004462369032</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AZ18" t="n">
         <v>0.2766970501088561</v>
       </c>
     </row>
@@ -2552,105 +3392,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D19" t="n">
+        <v>54.68058882145314</v>
+      </c>
+      <c r="E19" t="n">
         <v>1.326544982319022</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>63.61941069554516</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.746395165356193</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
+        <v>62.39596999747382</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.072899567586209</v>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
+        <v>68.89861956108192</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.2880350280867314</v>
       </c>
-      <c r="H19" t="n">
+      <c r="L19" t="n">
+        <v>72.06859352371856</v>
+      </c>
+      <c r="M19" t="n">
         <v>1.441747272182591</v>
       </c>
-      <c r="I19" t="n">
+      <c r="N19" t="n">
+        <v>70.87884302782236</v>
+      </c>
+      <c r="O19" t="n">
         <v>1.088747842313152</v>
       </c>
-      <c r="J19" t="n">
+      <c r="P19" t="n">
+        <v>71.35336831258131</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1.277648978751671</v>
       </c>
-      <c r="K19" t="n">
+      <c r="R19" t="n">
+        <v>72.36771671790197</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.098631871903032</v>
       </c>
-      <c r="L19" t="n">
+      <c r="T19" t="n">
+        <v>72.01743982145415</v>
+      </c>
+      <c r="U19" t="n">
         <v>0.6824543750468679</v>
       </c>
-      <c r="M19" t="n">
+      <c r="V19" t="n">
+        <v>69.88731123388575</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.093056245527766</v>
       </c>
-      <c r="N19" t="n">
+      <c r="X19" t="n">
+        <v>69.93132214524086</v>
+      </c>
+      <c r="Y19" t="n">
         <v>1.148374895719009</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Z19" t="n">
+        <v>68.81505169962175</v>
+      </c>
+      <c r="AA19" t="n">
         <v>0.8055307510272681</v>
       </c>
-      <c r="P19" t="n">
+      <c r="AB19" t="n">
+        <v>72.02711034293199</v>
+      </c>
+      <c r="AC19" t="n">
         <v>2.310721571623811</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="AD19" t="n">
+        <v>67.96301276817248</v>
+      </c>
+      <c r="AE19" t="n">
         <v>8.871448809977972</v>
       </c>
-      <c r="R19" t="n">
+      <c r="AF19" t="n">
+        <v>65.50770337850015</v>
+      </c>
+      <c r="AG19" t="n">
         <v>15.00270218754879</v>
       </c>
-      <c r="S19" t="n">
+      <c r="AH19" t="n">
         <v>2.5304678734499</v>
       </c>
-      <c r="T19" t="n">
+      <c r="AI19" t="n">
         <v>7.16000933884373</v>
       </c>
-      <c r="U19" t="n">
+      <c r="AJ19" t="n">
         <v>14.1495925928747</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AK19" t="n">
         <v>0.1181905445205943</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AL19" t="n">
         <v>0.0453110488035525</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AM19" t="n">
         <v>0.1422870466727379</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AN19" t="n">
         <v>0.04337082105593152</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AO19" t="n">
         <v>0.292517582326143</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AP19" t="n">
         <v>0.1380057047729741</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AQ19" t="n">
         <v>0.3882431184400206</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AR19" t="n">
         <v>0.02998656511576844</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AS19" t="n">
         <v>0.3408550690233398</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AT19" t="n">
         <v>0.09015335379928864</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AU19" t="n">
         <v>1.451569034421488</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AV19" t="n">
         <v>0.3228272911291591</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AW19" t="n">
         <v>1.204161492859973</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AX19" t="n">
         <v>1.095676285349892</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AY19" t="n">
         <v>1.414868612621054</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AZ19" t="n">
         <v>0.6777525348635772</v>
       </c>
     </row>
@@ -2665,105 +3550,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D20" t="n">
+        <v>54.76026237915456</v>
+      </c>
+      <c r="E20" t="n">
         <v>1.511860714933708</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>64.2200122775738</v>
+      </c>
+      <c r="G20" t="n">
         <v>4.568469278074965</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
+        <v>62.34380886548128</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.251087177954646</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
+        <v>62.925714317165</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.414154035015443</v>
       </c>
-      <c r="H20" t="n">
+      <c r="L20" t="n">
+        <v>72.49270869160375</v>
+      </c>
+      <c r="M20" t="n">
         <v>1.394187773034767</v>
       </c>
-      <c r="I20" t="n">
+      <c r="N20" t="n">
+        <v>70.92296017936501</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.146634152361626</v>
       </c>
-      <c r="J20" t="n">
+      <c r="P20" t="n">
+        <v>71.40212877965585</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1.355262759704702</v>
       </c>
-      <c r="K20" t="n">
+      <c r="R20" t="n">
+        <v>72.73060414510154</v>
+      </c>
+      <c r="S20" t="n">
         <v>1.033690730068886</v>
       </c>
-      <c r="L20" t="n">
+      <c r="T20" t="n">
+        <v>72.28119507235991</v>
+      </c>
+      <c r="U20" t="n">
         <v>0.6535407187419552</v>
       </c>
-      <c r="M20" t="n">
+      <c r="V20" t="n">
+        <v>69.95683192582499</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.176290188016925</v>
       </c>
-      <c r="N20" t="n">
+      <c r="X20" t="n">
+        <v>70.27023158101733</v>
+      </c>
+      <c r="Y20" t="n">
         <v>1.194350765167714</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Z20" t="n">
+        <v>68.86534812706726</v>
+      </c>
+      <c r="AA20" t="n">
         <v>1.082746959241021</v>
       </c>
-      <c r="P20" t="n">
+      <c r="AB20" t="n">
+        <v>72.37705344190105</v>
+      </c>
+      <c r="AC20" t="n">
         <v>2.241224223689727</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="AD20" t="n">
+        <v>66.77990818593921</v>
+      </c>
+      <c r="AE20" t="n">
         <v>8.670916986222307</v>
       </c>
-      <c r="R20" t="n">
+      <c r="AF20" t="n">
+        <v>64.53606105133574</v>
+      </c>
+      <c r="AG20" t="n">
         <v>14.40498884089293</v>
       </c>
-      <c r="S20" t="n">
+      <c r="AH20" t="n">
         <v>4.548001119957982</v>
       </c>
-      <c r="T20" t="n">
+      <c r="AI20" t="n">
         <v>8.392953407872207</v>
       </c>
-      <c r="U20" t="n">
+      <c r="AJ20" t="n">
         <v>14.17272851939361</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AK20" t="n">
         <v>0.1314303384168621</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AL20" t="n">
         <v>0.06164796340985913</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AM20" t="n">
         <v>0.1854267854097481</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AN20" t="n">
         <v>0.04684362956835825</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AO20" t="n">
         <v>0.07333691934951798</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AP20" t="n">
         <v>0.09590470934796259</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AQ20" t="n">
         <v>0.3644962171333228</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AR20" t="n">
         <v>0.09245143679188579</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AS20" t="n">
         <v>0.4624197044071952</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AT20" t="n">
         <v>0.1208984831272989</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AU20" t="n">
         <v>1.048864494046968</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AV20" t="n">
         <v>0.9113561915597221</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AW20" t="n">
         <v>1.769767625687117</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AX20" t="n">
         <v>0.8079772539346123</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AY20" t="n">
         <v>2.141674092365278</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AZ20" t="n">
         <v>0.9634816289854452</v>
       </c>
     </row>
@@ -2778,105 +3708,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D21" t="n">
+        <v>54.64714995084387</v>
+      </c>
+      <c r="E21" t="n">
         <v>1.911836531870778</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>64.22163267263694</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.441860757657321</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
+        <v>62.41823262552297</v>
+      </c>
+      <c r="I21" t="n">
         <v>1.254031895127994</v>
       </c>
-      <c r="G21" t="n">
+      <c r="J21" t="n">
+        <v>62.9234279593616</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.4248916032917888</v>
       </c>
-      <c r="H21" t="n">
+      <c r="L21" t="n">
+        <v>72.20106441865883</v>
+      </c>
+      <c r="M21" t="n">
         <v>0.923592338806913</v>
       </c>
-      <c r="I21" t="n">
+      <c r="N21" t="n">
+        <v>70.75424105433632</v>
+      </c>
+      <c r="O21" t="n">
         <v>0.7197802150791599</v>
       </c>
-      <c r="J21" t="n">
+      <c r="P21" t="n">
+        <v>70.87992306991836</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1.155508167873474</v>
       </c>
-      <c r="K21" t="n">
+      <c r="R21" t="n">
+        <v>73.14679535767067</v>
+      </c>
+      <c r="S21" t="n">
         <v>1.206956425616219</v>
       </c>
-      <c r="L21" t="n">
+      <c r="T21" t="n">
+        <v>72.57032455582566</v>
+      </c>
+      <c r="U21" t="n">
         <v>0.7129391567450132</v>
       </c>
-      <c r="M21" t="n">
+      <c r="V21" t="n">
+        <v>70.07613160471077</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.201641389463253</v>
       </c>
-      <c r="N21" t="n">
+      <c r="X21" t="n">
+        <v>70.49487490051176</v>
+      </c>
+      <c r="Y21" t="n">
         <v>1.102976864463171</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Z21" t="n">
+        <v>68.85949510819431</v>
+      </c>
+      <c r="AA21" t="n">
         <v>0.9887180155759137</v>
       </c>
-      <c r="P21" t="n">
+      <c r="AB21" t="n">
+        <v>72.74712294521821</v>
+      </c>
+      <c r="AC21" t="n">
         <v>2.511186370699595</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="AD21" t="n">
+        <v>67.54493771350336</v>
+      </c>
+      <c r="AE21" t="n">
         <v>8.811713664712567</v>
       </c>
-      <c r="R21" t="n">
+      <c r="AF21" t="n">
+        <v>62.09765356712592</v>
+      </c>
+      <c r="AG21" t="n">
         <v>15.75363564615363</v>
       </c>
-      <c r="S21" t="n">
+      <c r="AH21" t="n">
         <v>5.082373772572123</v>
       </c>
-      <c r="T21" t="n">
+      <c r="AI21" t="n">
         <v>9.927544997413019</v>
       </c>
-      <c r="U21" t="n">
+      <c r="AJ21" t="n">
         <v>13.13868094090073</v>
       </c>
-      <c r="V21" t="n">
+      <c r="AK21" t="n">
         <v>0.1165368762768666</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AL21" t="n">
         <v>0.05309456670347892</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AM21" t="n">
         <v>0.2122265303461233</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AN21" t="n">
         <v>0.09721442736324558</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AO21" t="n">
         <v>0.2130690461605947</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AP21" t="n">
         <v>0.180655388270253</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AQ21" t="n">
         <v>0.3365636635579735</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AR21" t="n">
         <v>0.1892901952265106</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AS21" t="n">
         <v>0.4841051988416387</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AT21" t="n">
         <v>0.2287257566809081</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AU21" t="n">
         <v>1.310851036050099</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AV21" t="n">
         <v>0.3231948617295727</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AW21" t="n">
         <v>0.4520593042998468</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AX21" t="n">
         <v>1.652070201986907</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AY21" t="n">
         <v>1.999684440768511</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AZ21" t="n">
         <v>1.882755976626459</v>
       </c>
     </row>
@@ -2891,105 +3866,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D22" t="n">
+        <v>54.68968204261932</v>
+      </c>
+      <c r="E22" t="n">
         <v>1.967841325886164</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>63.95499392574146</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.473851897031005</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
+        <v>62.4650473647533</v>
+      </c>
+      <c r="I22" t="n">
         <v>1.203922041770099</v>
       </c>
-      <c r="G22" t="n">
+      <c r="J22" t="n">
+        <v>63.08722582137278</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.5387005339692162</v>
       </c>
-      <c r="H22" t="n">
+      <c r="L22" t="n">
+        <v>72.64827597647643</v>
+      </c>
+      <c r="M22" t="n">
         <v>0.9562106791855361</v>
       </c>
-      <c r="I22" t="n">
+      <c r="N22" t="n">
+        <v>70.85938017729062</v>
+      </c>
+      <c r="O22" t="n">
         <v>0.7079077093398547</v>
       </c>
-      <c r="J22" t="n">
+      <c r="P22" t="n">
+        <v>71.18832640134436</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1.17248213798091</v>
       </c>
-      <c r="K22" t="n">
+      <c r="R22" t="n">
+        <v>73.10760336141803</v>
+      </c>
+      <c r="S22" t="n">
         <v>1.352747544285008</v>
       </c>
-      <c r="L22" t="n">
+      <c r="T22" t="n">
+        <v>72.44231216866562</v>
+      </c>
+      <c r="U22" t="n">
         <v>0.7312034415554702</v>
       </c>
-      <c r="M22" t="n">
+      <c r="V22" t="n">
+        <v>70.3399370051757</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.265551791336819</v>
       </c>
-      <c r="N22" t="n">
+      <c r="X22" t="n">
+        <v>70.77747221835335</v>
+      </c>
+      <c r="Y22" t="n">
         <v>1.141427518315171</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Z22" t="n">
+        <v>68.94436985482719</v>
+      </c>
+      <c r="AA22" t="n">
         <v>1.207125265454559</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AB22" t="n">
+        <v>72.7255324025615</v>
+      </c>
+      <c r="AC22" t="n">
         <v>2.293829526814824</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="AD22" t="n">
+        <v>68.03326628679534</v>
+      </c>
+      <c r="AE22" t="n">
         <v>8.862467396515205</v>
       </c>
-      <c r="R22" t="n">
+      <c r="AF22" t="n">
+        <v>63.73025021001271</v>
+      </c>
+      <c r="AG22" t="n">
         <v>14.70165356374888</v>
       </c>
-      <c r="S22" t="n">
+      <c r="AH22" t="n">
         <v>6.273054162251572</v>
       </c>
-      <c r="T22" t="n">
+      <c r="AI22" t="n">
         <v>8.103465182106792</v>
       </c>
-      <c r="U22" t="n">
+      <c r="AJ22" t="n">
         <v>10.72461288000535</v>
       </c>
-      <c r="V22" t="n">
+      <c r="AK22" t="n">
         <v>0.08043649538724747</v>
       </c>
-      <c r="W22" t="n">
+      <c r="AL22" t="n">
         <v>0.06608401746496659</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AM22" t="n">
         <v>0.1025266859217976</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AN22" t="n">
         <v>0.1208355527779848</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AO22" t="n">
         <v>0.3668285619757038</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AP22" t="n">
         <v>0.05047097984897678</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AQ22" t="n">
         <v>0.2972980203551435</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AR22" t="n">
         <v>0.05386411375371714</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AS22" t="n">
         <v>0.3432939304229095</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AT22" t="n">
         <v>0.1915989871878075</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AU22" t="n">
         <v>0.8405305647470607</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AV22" t="n">
         <v>0.2242923202259794</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AW22" t="n">
         <v>1.518131992745722</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AX22" t="n">
         <v>0.565048203793188</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AY22" t="n">
         <v>1.887979039288138</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AZ22" t="n">
         <v>1.321745205657399</v>
       </c>
     </row>
@@ -3004,105 +4024,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D23" t="n">
+        <v>44.68496953529399</v>
+      </c>
+      <c r="E23" t="n">
         <v>1.211228857355065</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>56.98985652209302</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.166456733917978</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
+        <v>62.56657007321516</v>
+      </c>
+      <c r="I23" t="n">
         <v>1.189762530503176</v>
       </c>
-      <c r="G23" t="n">
+      <c r="J23" t="n">
+        <v>63.19468498434876</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.5660381085521908</v>
       </c>
-      <c r="H23" t="n">
+      <c r="L23" t="n">
+        <v>72.74542509588662</v>
+      </c>
+      <c r="M23" t="n">
         <v>0.9938790934540088</v>
       </c>
-      <c r="I23" t="n">
+      <c r="N23" t="n">
+        <v>58.80329103468449</v>
+      </c>
+      <c r="O23" t="n">
         <v>1.093653231048088</v>
       </c>
-      <c r="J23" t="n">
+      <c r="P23" t="n">
+        <v>71.37771972259911</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1.367422632685207</v>
       </c>
-      <c r="K23" t="n">
+      <c r="R23" t="n">
+        <v>72.9109596296346</v>
+      </c>
+      <c r="S23" t="n">
         <v>1.40166406616696</v>
       </c>
-      <c r="L23" t="n">
+      <c r="T23" t="n">
+        <v>72.45628486571316</v>
+      </c>
+      <c r="U23" t="n">
         <v>0.9049559501296353</v>
       </c>
-      <c r="M23" t="n">
+      <c r="V23" t="n">
+        <v>70.51905886676363</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.301650810149698</v>
       </c>
-      <c r="N23" t="n">
+      <c r="X23" t="n">
+        <v>70.7105826601538</v>
+      </c>
+      <c r="Y23" t="n">
         <v>1.189945829953638</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Z23" t="n">
+        <v>68.99226637022154</v>
+      </c>
+      <c r="AA23" t="n">
         <v>1.318954414334948</v>
       </c>
-      <c r="P23" t="n">
+      <c r="AB23" t="n">
+        <v>72.93904333425876</v>
+      </c>
+      <c r="AC23" t="n">
         <v>2.22541441579249</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="AD23" t="n">
+        <v>70.12203097842648</v>
+      </c>
+      <c r="AE23" t="n">
         <v>8.686172704474517</v>
       </c>
-      <c r="R23" t="n">
+      <c r="AF23" t="n">
+        <v>63.34480842538052</v>
+      </c>
+      <c r="AG23" t="n">
         <v>14.44626069524559</v>
       </c>
-      <c r="S23" t="n">
+      <c r="AH23" t="n">
         <v>7.191511407139421</v>
       </c>
-      <c r="T23" t="n">
+      <c r="AI23" t="n">
         <v>7.928478858822228</v>
       </c>
-      <c r="U23" t="n">
+      <c r="AJ23" t="n">
         <v>11.04285614465895</v>
       </c>
-      <c r="V23" t="n">
+      <c r="AK23" t="n">
         <v>0.03442879408406566</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AL23" t="n">
         <v>0.05542515785648709</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AM23" t="n">
         <v>0.1743199198750608</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AN23" t="n">
         <v>0.1773729652243721</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AO23" t="n">
         <v>0.3432881017473581</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AP23" t="n">
         <v>0.06849439867723243</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AQ23" t="n">
         <v>0.4103681550095</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AR23" t="n">
         <v>0.1830949277800228</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AS23" t="n">
         <v>1.412460980252024</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AT23" t="n">
         <v>1.742705114220539</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AU23" t="n">
         <v>0.8398255611154837</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AV23" t="n">
         <v>1.284688158218707</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AW23" t="n">
         <v>0.9349427680063773</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AX23" t="n">
         <v>1.875536271975738</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AY23" t="n">
         <v>2.832862821814829</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AZ23" t="n">
         <v>2.391432709202246</v>
       </c>
     </row>
@@ -3117,105 +4182,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D24" t="n">
+        <v>54.36552989910662</v>
+      </c>
+      <c r="E24" t="n">
         <v>1.622347682191016</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>64.09543512528354</v>
+      </c>
+      <c r="G24" t="n">
         <v>1.794260599400571</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
+        <v>62.46495138782478</v>
+      </c>
+      <c r="I24" t="n">
         <v>1.405861758824739</v>
       </c>
-      <c r="G24" t="n">
+      <c r="J24" t="n">
+        <v>63.35386015789665</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.517253890890979</v>
       </c>
-      <c r="H24" t="n">
+      <c r="L24" t="n">
+        <v>72.86760211531296</v>
+      </c>
+      <c r="M24" t="n">
         <v>1.09143457767309</v>
       </c>
-      <c r="I24" t="n">
+      <c r="N24" t="n">
+        <v>59.02148944444604</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.412072560742724</v>
       </c>
-      <c r="J24" t="n">
+      <c r="P24" t="n">
+        <v>71.24508582936853</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1.351077742677217</v>
       </c>
-      <c r="K24" t="n">
+      <c r="R24" t="n">
+        <v>76.73339332456352</v>
+      </c>
+      <c r="S24" t="n">
         <v>1.436874070339387</v>
       </c>
-      <c r="L24" t="n">
+      <c r="T24" t="n">
+        <v>72.7047640823746</v>
+      </c>
+      <c r="U24" t="n">
         <v>0.9255906182321312</v>
       </c>
-      <c r="M24" t="n">
+      <c r="V24" t="n">
+        <v>70.76347433083366</v>
+      </c>
+      <c r="W24" t="n">
         <v>1.172277614978827</v>
       </c>
-      <c r="N24" t="n">
+      <c r="X24" t="n">
+        <v>70.81159036877006</v>
+      </c>
+      <c r="Y24" t="n">
         <v>1.165737276933263</v>
       </c>
-      <c r="O24" t="n">
+      <c r="Z24" t="n">
+        <v>69.00997050815511</v>
+      </c>
+      <c r="AA24" t="n">
         <v>1.264971443569656</v>
       </c>
-      <c r="P24" t="n">
+      <c r="AB24" t="n">
+        <v>72.93521094178213</v>
+      </c>
+      <c r="AC24" t="n">
         <v>2.149562682434102</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="AD24" t="n">
+        <v>69.56289398812324</v>
+      </c>
+      <c r="AE24" t="n">
         <v>8.521613034056267</v>
       </c>
-      <c r="R24" t="n">
+      <c r="AF24" t="n">
+        <v>63.18714230620343</v>
+      </c>
+      <c r="AG24" t="n">
         <v>13.69737783169259</v>
       </c>
-      <c r="S24" t="n">
+      <c r="AH24" t="n">
         <v>8.771803661701009</v>
       </c>
-      <c r="T24" t="n">
+      <c r="AI24" t="n">
         <v>10.46762860172314</v>
       </c>
-      <c r="U24" t="n">
+      <c r="AJ24" t="n">
         <v>10.23583599846497</v>
       </c>
-      <c r="V24" t="n">
+      <c r="AK24" t="n">
         <v>0.09198336492234784</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AL24" t="n">
         <v>0.03405606619947529</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AM24" t="n">
         <v>0.3671464712404301</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AN24" t="n">
         <v>0.2274839815698571</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AO24" t="n">
         <v>0.3163585593064055</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AP24" t="n">
         <v>0.1123638908205609</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AQ24" t="n">
         <v>0.3701987650927575</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AR24" t="n">
         <v>0.1220791404379098</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AS24" t="n">
         <v>1.390100693789993</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AT24" t="n">
         <v>1.674751605952358</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AU24" t="n">
         <v>2.579312661814075</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AV24" t="n">
         <v>1.713909022433407</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AW24" t="n">
         <v>2.330547180711396</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AX24" t="n">
         <v>1.060990001665228</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AY24" t="n">
         <v>2.422615978306738</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AZ24" t="n">
         <v>2.934018728116039</v>
       </c>
     </row>
@@ -3230,105 +4340,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D25" t="n">
+        <v>54.23071566606052</v>
+      </c>
+      <c r="E25" t="n">
         <v>1.373466084910252</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>62.81695668444057</v>
+      </c>
+      <c r="G25" t="n">
         <v>2.330494075962628</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
+        <v>62.41722805736103</v>
+      </c>
+      <c r="I25" t="n">
         <v>1.505128936616825</v>
       </c>
-      <c r="G25" t="n">
+      <c r="J25" t="n">
+        <v>60.57182098938353</v>
+      </c>
+      <c r="K25" t="n">
         <v>2.670291964739605</v>
       </c>
-      <c r="H25" t="n">
+      <c r="L25" t="n">
+        <v>72.65763034989544</v>
+      </c>
+      <c r="M25" t="n">
         <v>0.9724950635713281</v>
       </c>
-      <c r="I25" t="n">
+      <c r="N25" t="n">
+        <v>66.07972681063602</v>
+      </c>
+      <c r="O25" t="n">
         <v>1.480350400692697</v>
       </c>
-      <c r="J25" t="n">
+      <c r="P25" t="n">
+        <v>61.00472823968025</v>
+      </c>
+      <c r="Q25" t="n">
         <v>4.231010348213571</v>
       </c>
-      <c r="K25" t="n">
+      <c r="R25" t="n">
+        <v>76.90839475434581</v>
+      </c>
+      <c r="S25" t="n">
         <v>1.319400548259541</v>
       </c>
-      <c r="L25" t="n">
+      <c r="T25" t="n">
+        <v>73.16032419100569</v>
+      </c>
+      <c r="U25" t="n">
         <v>1.045026923618786</v>
       </c>
-      <c r="M25" t="n">
+      <c r="V25" t="n">
+        <v>70.90095332404839</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.126638010179313</v>
       </c>
-      <c r="N25" t="n">
+      <c r="X25" t="n">
+        <v>71.24583544762065</v>
+      </c>
+      <c r="Y25" t="n">
         <v>1.309471392107818</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Z25" t="n">
+        <v>69.10962838271818</v>
+      </c>
+      <c r="AA25" t="n">
         <v>1.265590220942218</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AB25" t="n">
+        <v>73.13499576517492</v>
+      </c>
+      <c r="AC25" t="n">
         <v>1.988720551816409</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="AD25" t="n">
+        <v>69.74457119175821</v>
+      </c>
+      <c r="AE25" t="n">
         <v>9.139445766255321</v>
       </c>
-      <c r="R25" t="n">
+      <c r="AF25" t="n">
+        <v>63.29878891568188</v>
+      </c>
+      <c r="AG25" t="n">
         <v>13.21668693909572</v>
       </c>
-      <c r="S25" t="n">
+      <c r="AH25" t="n">
         <v>11.31872971676202</v>
       </c>
-      <c r="T25" t="n">
+      <c r="AI25" t="n">
         <v>13.41081311247636</v>
       </c>
-      <c r="U25" t="n">
+      <c r="AJ25" t="n">
         <v>10.90430330613656</v>
       </c>
-      <c r="V25" t="n">
+      <c r="AK25" t="n">
         <v>0.0913179294518819</v>
       </c>
-      <c r="W25" t="n">
+      <c r="AL25" t="n">
         <v>0.1302395762930873</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AM25" t="n">
         <v>0.4899884975228348</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AN25" t="n">
         <v>0.1963640921883496</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AO25" t="n">
         <v>0.412719251581713</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AP25" t="n">
         <v>0.3031763324610501</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AQ25" t="n">
         <v>0.1335355487735792</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AR25" t="n">
         <v>0.2888882431930952</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AS25" t="n">
         <v>0.1031468963473551</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AT25" t="n">
         <v>0.1202931701431791</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AU25" t="n">
         <v>3.835710605596971</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AV25" t="n">
         <v>1.025452120084445</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AW25" t="n">
         <v>1.546079788789271</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AX25" t="n">
         <v>3.214882288580295</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AY25" t="n">
         <v>2.040160758564581</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AZ25" t="n">
         <v>4.371956556423962</v>
       </c>
     </row>
@@ -3343,105 +4498,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D26" t="n">
+        <v>54.09833573249783</v>
+      </c>
+      <c r="E26" t="n">
         <v>1.417662498864021</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>62.58636636056219</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.503463835564039</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
+        <v>60.1038203982485</v>
+      </c>
+      <c r="I26" t="n">
         <v>3.515448644429133</v>
       </c>
-      <c r="G26" t="n">
+      <c r="J26" t="n">
+        <v>60.84926364681299</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.253191627222688</v>
       </c>
-      <c r="H26" t="n">
+      <c r="L26" t="n">
+        <v>72.52783556096524</v>
+      </c>
+      <c r="M26" t="n">
         <v>1.008971164388418</v>
       </c>
-      <c r="I26" t="n">
+      <c r="N26" t="n">
+        <v>59.31430343213809</v>
+      </c>
+      <c r="O26" t="n">
         <v>1.629767909692651</v>
       </c>
-      <c r="J26" t="n">
+      <c r="P26" t="n">
+        <v>70.88456044710246</v>
+      </c>
+      <c r="Q26" t="n">
         <v>1.544766414863329</v>
       </c>
-      <c r="K26" t="n">
+      <c r="R26" t="n">
+        <v>76.8674658345696</v>
+      </c>
+      <c r="S26" t="n">
         <v>1.336930346629443</v>
       </c>
-      <c r="L26" t="n">
+      <c r="T26" t="n">
+        <v>73.14154282307349</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.14091987006992</v>
       </c>
-      <c r="M26" t="n">
+      <c r="V26" t="n">
+        <v>71.95621576200935</v>
+      </c>
+      <c r="W26" t="n">
         <v>1.010170191347023</v>
       </c>
-      <c r="N26" t="n">
+      <c r="X26" t="n">
+        <v>72.1289265959346</v>
+      </c>
+      <c r="Y26" t="n">
         <v>1.400616667830143</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Z26" t="n">
+        <v>69.44615501292486</v>
+      </c>
+      <c r="AA26" t="n">
         <v>1.327878137251472</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AB26" t="n">
+        <v>73.48582349389442</v>
+      </c>
+      <c r="AC26" t="n">
         <v>2.228583681287069</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="AD26" t="n">
+        <v>70.84888863720506</v>
+      </c>
+      <c r="AE26" t="n">
         <v>9.879682595242206</v>
       </c>
-      <c r="R26" t="n">
+      <c r="AF26" t="n">
+        <v>62.90464273821902</v>
+      </c>
+      <c r="AG26" t="n">
         <v>13.00618412487957</v>
       </c>
-      <c r="S26" t="n">
+      <c r="AH26" t="n">
         <v>16.35992684414829</v>
       </c>
-      <c r="T26" t="n">
+      <c r="AI26" t="n">
         <v>8.77879627078439</v>
       </c>
-      <c r="U26" t="n">
+      <c r="AJ26" t="n">
         <v>9.152670464442718</v>
       </c>
-      <c r="V26" t="n">
+      <c r="AK26" t="n">
         <v>0.6359385957994923</v>
       </c>
-      <c r="W26" t="n">
+      <c r="AL26" t="n">
         <v>0.3429423407670876</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AM26" t="n">
         <v>0.7465519928072608</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AN26" t="n">
         <v>0.2644324699152334</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AO26" t="n">
         <v>1.300320316225131</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AP26" t="n">
         <v>0.6770743904500618</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AQ26" t="n">
         <v>0.3330483589710924</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AR26" t="n">
         <v>0.3199391552942868</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AS26" t="n">
         <v>0.3587458120433678</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AT26" t="n">
         <v>0.1873282347232501</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AU26" t="n">
         <v>4.535171965801338</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AV26" t="n">
         <v>1.010842958257954</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AW26" t="n">
         <v>7.06645773618148</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AX26" t="n">
         <v>5.30094960953584</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AY26" t="n">
         <v>9.585444760847473</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AZ26" t="n">
         <v>6.586970874794273</v>
       </c>
     </row>
